--- a/Data/Week_2/Radii.xlsx
+++ b/Data/Week_2/Radii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dina2\Downloads\week 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hujiacil-my.sharepoint.com/personal/eitanka_on_huji_ac_il/Documents/EitanDina/Week 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BBDE35-56A2-4BAB-916C-E65F904D16BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{16BBDE35-56A2-4BAB-916C-E65F904D16BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E725874-4FF5-420B-991F-31D907A3FB70}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="0" windowWidth="4990" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,15 +349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>128</v>
       </c>
@@ -365,7 +365,7 @@
         <v>1.4300000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>129</v>
       </c>
@@ -373,7 +373,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>127</v>
       </c>
@@ -381,7 +381,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>125</v>
       </c>
@@ -389,7 +389,7 @@
         <v>1.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>124</v>
       </c>
@@ -397,7 +397,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>119</v>
       </c>
@@ -405,7 +405,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108</v>
       </c>
@@ -413,7 +413,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>122</v>
       </c>
@@ -421,7 +421,7 @@
         <v>1.33E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>111</v>
       </c>
@@ -429,7 +429,7 @@
         <v>1.34E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>120</v>
       </c>
@@ -437,7 +437,7 @@
         <v>4.3600000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104</v>
       </c>
@@ -445,7 +445,7 @@
         <v>2.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>102</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>101</v>
       </c>
@@ -461,7 +461,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>106</v>
       </c>
@@ -469,7 +469,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>108</v>
       </c>
@@ -477,7 +477,7 @@
         <v>1.91E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>110</v>
       </c>
@@ -485,7 +485,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>113</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1.15E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>105</v>
       </c>
@@ -509,7 +509,7 @@
         <v>2.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>123</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>126</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>134</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>201</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>202</v>
       </c>
@@ -549,7 +549,7 @@
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>204</v>
       </c>
@@ -557,7 +557,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>206</v>
       </c>
@@ -565,7 +565,7 @@
         <v>1.65E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>208</v>
       </c>
@@ -573,7 +573,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>210</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>211</v>
       </c>
@@ -589,7 +589,7 @@
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>212</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>216</v>
       </c>
@@ -605,7 +605,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>228</v>
       </c>
@@ -613,7 +613,7 @@
         <v>1.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>230</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1.98E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>231</v>
       </c>
@@ -629,7 +629,7 @@
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>232</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>234</v>
       </c>
@@ -645,7 +645,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>236</v>
       </c>
@@ -653,7 +653,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>223</v>
       </c>
@@ -661,7 +661,7 @@
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>301</v>
       </c>
@@ -669,7 +669,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>302</v>
       </c>
@@ -677,7 +677,7 @@
         <v>2.2369999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>303</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>304</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1.39E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>306</v>
       </c>
@@ -701,7 +701,7 @@
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>308</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>309</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>313</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>314</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>315</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>316</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>318</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1.374E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>321</v>
       </c>
@@ -765,7 +765,7 @@
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>326</v>
       </c>
@@ -773,7 +773,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>327</v>
       </c>
@@ -781,7 +781,7 @@
         <v>2.2300000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>333</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1.67E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>336</v>
       </c>
@@ -797,7 +797,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>338</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>344</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>349</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1.4400000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>352</v>
       </c>
@@ -829,7 +829,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>356</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>359</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>360</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>375</v>
       </c>
@@ -861,7 +861,7 @@
         <v>2.0500000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>381</v>
       </c>
@@ -869,7 +869,7 @@
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>387</v>
       </c>
@@ -877,7 +877,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>396</v>
       </c>
@@ -885,7 +885,7 @@
         <v>1.32E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>398</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>399</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3100</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3110</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3116</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1.8389999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3126</v>
       </c>
@@ -933,7 +933,7 @@
         <v>9.68E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3130</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1.72E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3132</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3133</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2.99E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3137</v>
       </c>
@@ -965,7 +965,7 @@
         <v>2.7699999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3141</v>
       </c>
@@ -973,7 +973,7 @@
         <v>1.5900000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3145</v>
       </c>
@@ -981,7 +981,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3161</v>
       </c>
@@ -989,7 +989,7 @@
         <v>9.3799999999999994E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3166</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3169</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3171</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1.92E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3185</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>1.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3187</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1.9499999999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3195</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>401</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>3.1099999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>404</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1.66E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>405</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>406</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2.0100000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>408</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>1.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>411</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>415</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>417</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>419</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>420</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>2.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>422</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>424</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>425</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>428</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>429</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>430</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1.56E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>433</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1.5900000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>434</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1.58E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>439</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>440</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>441</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>2.1099999999999999E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>442</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>443</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1.57E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>444</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1.3399999999999999E-8</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>445</v>
       </c>
@@ -1237,12 +1237,180 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>450</v>
       </c>
       <c r="B114" s="1">
         <v>2.2499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>508</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>513</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1.66E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>524</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1.83E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>527</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2.31E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>531</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>555</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.3799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>556</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.4499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>557</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.4300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>561</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>565</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>567</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>571</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.2099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>572</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.82E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>573</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.89E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>575</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>577</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>578</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.75E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>581</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1.7600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>587</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1.9400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>590</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>593</v>
+      </c>
+      <c r="B137" s="1">
+        <v>9.6100000000000005E-4</v>
       </c>
     </row>
   </sheetData>
